--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\az-su\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\az-su\Documents\databased\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="72">
   <si>
     <t>ColName</t>
   </si>
@@ -174,6 +174,72 @@
   </si>
   <si>
     <t xml:space="preserve">genre </t>
+  </si>
+  <si>
+    <t>actors</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>aka_names</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>idaka_names</t>
+  </si>
+  <si>
+    <t>moves</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>movies_keywords</t>
+  </si>
+  <si>
+    <t>idkeywords</t>
+  </si>
+  <si>
+    <t>idgenres</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>aka_titles</t>
+  </si>
+  <si>
+    <t>idaka_titles</t>
+  </si>
+  <si>
+    <t>M-M bridge from character to actor</t>
+  </si>
+  <si>
+    <t>M-M bridge from character to movie</t>
+  </si>
+  <si>
+    <t>M-M bridge from character to series</t>
   </si>
 </sst>
 </file>
@@ -525,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -539,9 +605,10 @@
     <col min="4" max="4" width="12.06640625" customWidth="1"/>
     <col min="5" max="5" width="10.9296875" customWidth="1"/>
     <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,10 +631,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -590,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -613,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -636,7 +706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -659,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -675,8 +745,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -692,8 +765,11 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -709,8 +785,14 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -726,8 +808,14 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -743,8 +831,14 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -760,8 +854,14 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -777,8 +877,14 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -794,8 +900,14 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -811,8 +923,14 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -828,8 +946,11 @@
       <c r="E15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -845,8 +966,11 @@
       <c r="E16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -862,8 +986,14 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -879,8 +1009,14 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -896,8 +1032,14 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -913,8 +1055,14 @@
       <c r="E20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -930,8 +1078,14 @@
       <c r="E21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -947,8 +1101,14 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -964,8 +1124,14 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1147,14 @@
       <c r="E24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -998,8 +1170,14 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1015,8 +1193,14 @@
       <c r="E26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1032,8 +1216,14 @@
       <c r="E27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1239,11 @@
       <c r="E28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1066,8 +1259,11 @@
       <c r="E29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1083,8 +1279,14 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1100,8 +1302,14 @@
       <c r="E31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1117,8 +1325,14 @@
       <c r="E32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1134,8 +1348,14 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1151,8 +1371,14 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1168,8 +1394,14 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1184,6 +1416,12 @@
       </c>
       <c r="E36" t="s">
         <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
   <si>
     <t>ColName</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>M-M bridge from character to series</t>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>Not Null + Unique</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -604,7 +610,9 @@
     <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.06640625" customWidth="1"/>
     <col min="5" max="5" width="10.9296875" customWidth="1"/>
+    <col min="6" max="6" width="13.9296875" customWidth="1"/>
     <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -659,6 +667,9 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -682,6 +693,9 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -705,6 +719,9 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -728,6 +745,9 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -745,6 +765,9 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
       <c r="I6" t="s">
         <v>69</v>
       </c>
@@ -765,6 +788,9 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
       <c r="I7" t="s">
         <v>69</v>
       </c>
@@ -814,6 +840,9 @@
       <c r="G9" t="s">
         <v>54</v>
       </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -837,6 +866,9 @@
       <c r="G10" t="s">
         <v>55</v>
       </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -860,6 +892,9 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -875,13 +910,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -906,6 +944,9 @@
       <c r="G13" t="s">
         <v>60</v>
       </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -946,6 +987,9 @@
       <c r="E15" t="s">
         <v>16</v>
       </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
       <c r="I15" t="s">
         <v>70</v>
       </c>
@@ -966,6 +1010,9 @@
       <c r="E16" t="s">
         <v>16</v>
       </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" t="s">
         <v>70</v>
       </c>
@@ -992,6 +1039,9 @@
       <c r="G17" t="s">
         <v>18</v>
       </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
@@ -1061,6 +1111,9 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -1084,6 +1137,9 @@
       <c r="G21" t="s">
         <v>64</v>
       </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -1107,6 +1163,9 @@
       <c r="G22" t="s">
         <v>64</v>
       </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
@@ -1153,6 +1212,9 @@
       <c r="G24" t="s">
         <v>18</v>
       </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
@@ -1176,6 +1238,9 @@
       <c r="G25" t="s">
         <v>68</v>
       </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
@@ -1239,6 +1304,9 @@
       <c r="E28" t="s">
         <v>16</v>
       </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
       <c r="I28" t="s">
         <v>71</v>
       </c>
@@ -1259,6 +1327,9 @@
       <c r="E29" t="s">
         <v>16</v>
       </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" t="s">
         <v>71</v>
       </c>
@@ -1308,6 +1379,9 @@
       <c r="G31" t="s">
         <v>18</v>
       </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
@@ -1332,7 +1406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1355,7 +1429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1377,8 +1451,11 @@
       <c r="G34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1400,8 +1477,11 @@
       <c r="G35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>49</v>
       </c>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="71">
   <si>
     <t>ColName</t>
   </si>
@@ -53,9 +53,6 @@
     <t>character_id</t>
   </si>
   <si>
-    <t>Character</t>
-  </si>
-  <si>
     <t>actor_id</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>Character_Actor</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>aka_name</t>
   </si>
   <si>
-    <t>Character_Movie</t>
-  </si>
-  <si>
     <t>Movie</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>Aka_Movie</t>
   </si>
   <si>
-    <t>Character_Series</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -233,19 +221,22 @@
     <t>idaka_titles</t>
   </si>
   <si>
-    <t>M-M bridge from character to actor</t>
-  </si>
-  <si>
-    <t>M-M bridge from character to movie</t>
-  </si>
-  <si>
-    <t>M-M bridge from character to series</t>
-  </si>
-  <si>
     <t>Not Null</t>
   </si>
   <si>
     <t>Not Null + Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Null </t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Genre_Movie</t>
+  </si>
+  <si>
+    <t>movies_genres</t>
   </si>
 </sst>
 </file>
@@ -597,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -639,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -650,114 +641,114 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -765,22 +756,22 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -788,152 +779,155 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
       <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -942,44 +936,44 @@
         <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -987,146 +981,152 @@
       <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s">
-        <v>70</v>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1138,370 +1138,278 @@
         <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
         <v>17</v>
       </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
       <c r="H31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
         <v>65</v>
-      </c>
-      <c r="H35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
   <si>
     <t>ColName</t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -684,9 +684,6 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -736,9 +733,6 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -785,9 +779,6 @@
       <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -810,9 +801,6 @@
       </c>
       <c r="G8" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
